--- a/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table16.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table16.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FF64E-E1CA-6748-97FB-22307FA54F80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D736A270-96DA-2B4E-8AD1-2B5AD0D39EA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18780" yWindow="460" windowWidth="15460" windowHeight="25660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19980" yWindow="460" windowWidth="19960" windowHeight="25920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
   <si>
     <t>Value</t>
   </si>
@@ -128,19 +128,40 @@
   </si>
   <si>
     <t>EUREKA AREA TOTALS</t>
+  </si>
+  <si>
+    <t>Giant Pacific oyster</t>
+  </si>
+  <si>
+    <t>English sole</t>
+  </si>
+  <si>
+    <t>Rockfish</t>
+  </si>
+  <si>
+    <t>Miscelleneous (animal food)</t>
+  </si>
+  <si>
+    <t>Total check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -165,10 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,15 +507,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -501,11 +527,25 @@
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1445212</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2925324</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -513,133 +553,194 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>814047</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5580346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>186418</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1081106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>156433</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2227772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2">
+        <v>123259</v>
+      </c>
+      <c r="D6" s="2">
+        <v>535908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>25144</v>
+      </c>
+      <c r="D7" s="2">
+        <v>240645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>22899</v>
+      </c>
+      <c r="D8" s="2">
+        <v>177102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2">
+        <v>22715</v>
+      </c>
+      <c r="D9" s="2">
+        <v>255521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22505</v>
+      </c>
+      <c r="D10" s="2">
+        <v>220513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20887</v>
+      </c>
+      <c r="D11" s="2">
+        <v>417423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>17973</v>
+      </c>
+      <c r="D12" s="2">
+        <v>211440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13250</v>
+      </c>
+      <c r="D13" s="2">
+        <v>141736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2870742</v>
+      </c>
+      <c r="D14" s="2">
+        <v>14014836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM(C2:C13)-C14</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUM(D2:D13)-D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>11445212</v>
-      </c>
-      <c r="D3">
-        <v>2925324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>814047</v>
-      </c>
-      <c r="D4">
-        <v>5580346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>186418</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1081106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>156433</v>
-      </c>
-      <c r="D6">
-        <v>2227772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C7">
-        <v>123259</v>
-      </c>
-      <c r="D7">
-        <v>535908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>25144</v>
-      </c>
-      <c r="D8">
-        <v>240645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>22899</v>
-      </c>
-      <c r="D9">
-        <v>177102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C10">
-        <v>22715</v>
-      </c>
-      <c r="D10">
-        <v>255521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C11">
-        <v>22505</v>
-      </c>
-      <c r="D11">
-        <v>220513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C12">
-        <v>20887</v>
-      </c>
-      <c r="D12">
-        <v>417423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>17973</v>
-      </c>
-      <c r="D13">
-        <v>211440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>13250</v>
-      </c>
-      <c r="D14">
-        <v>141736</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>2870742</v>
-      </c>
-      <c r="D15">
-        <v>14014836</v>
+      <c r="C16" s="2">
+        <v>1095932</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2262365</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -647,153 +748,208 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>1095932</v>
-      </c>
-      <c r="D17">
-        <v>2262365</v>
+        <v>20</v>
+      </c>
+      <c r="C17" s="2">
+        <v>106816</v>
+      </c>
+      <c r="D17" s="2">
+        <v>732232</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>106816</v>
-      </c>
-      <c r="D18">
-        <v>732232</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>89994</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1281617</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
       <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>89994</v>
-      </c>
-      <c r="D19">
-        <v>1281617</v>
+        <v>14</v>
+      </c>
+      <c r="C19" s="2">
+        <v>85934</v>
+      </c>
+      <c r="D19" s="5">
+        <v>498360</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>85934</v>
-      </c>
-      <c r="D20">
-        <v>49836</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>73578</v>
+      </c>
+      <c r="D20" s="2">
+        <v>720951</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>73578</v>
-      </c>
-      <c r="D21">
-        <v>720951</v>
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <v>53302</v>
+      </c>
+      <c r="D21" s="2">
+        <v>412247</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>53302</v>
-      </c>
-      <c r="D22">
-        <v>412247</v>
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <v>29889</v>
+      </c>
+      <c r="D22" s="2">
+        <v>336230</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <v>29889</v>
-      </c>
-      <c r="D23">
-        <v>336230</v>
+        <v>24</v>
+      </c>
+      <c r="C23" s="2">
+        <v>25407</v>
+      </c>
+      <c r="D23" s="2">
+        <v>466219</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24">
-        <v>25407</v>
-      </c>
-      <c r="D24">
-        <v>466219</v>
+        <v>30</v>
+      </c>
+      <c r="C24" s="2">
+        <v>12724</v>
+      </c>
+      <c r="D24" s="2">
+        <v>148922</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>12724</v>
-      </c>
-      <c r="D25">
-        <v>148922</v>
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12551</v>
+      </c>
+      <c r="D25" s="2">
+        <v>147658</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
       <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>12551</v>
-      </c>
-      <c r="D26">
-        <v>147658</v>
+        <v>26</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5259</v>
+      </c>
+      <c r="D26" s="2">
+        <v>52965</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>5259</v>
-      </c>
-      <c r="D27">
-        <v>52965</v>
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5257</v>
+      </c>
+      <c r="D27" s="2">
+        <v>305231</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C28">
-        <v>5257</v>
-      </c>
-      <c r="D28">
-        <v>305231</v>
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6170</v>
+      </c>
+      <c r="D28" s="2">
+        <v>91772</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
       <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29">
-        <v>6170</v>
-      </c>
-      <c r="D29">
-        <v>91772</v>
+        <v>19</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1602813</v>
+      </c>
+      <c r="D29" s="2">
+        <v>7456769</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30">
-        <v>1602813</v>
-      </c>
-      <c r="D30">
-        <v>7456769</v>
+      <c r="B30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUM(C16:C28)-C29</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <f>SUM(D16:D28)-D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2">
+        <v>687189</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4710724</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -801,433 +957,573 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32">
-        <v>687189</v>
-      </c>
-      <c r="D32">
-        <v>4710724</v>
+        <v>12</v>
+      </c>
+      <c r="C32" s="2">
+        <v>551752</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1101693</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
       <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33">
-        <v>551752</v>
-      </c>
-      <c r="D33">
-        <v>1101693</v>
+        <v>16</v>
+      </c>
+      <c r="C33" s="2">
+        <v>98715</v>
+      </c>
+      <c r="D33" s="2">
+        <v>944776</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
       <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34">
-        <v>98715</v>
-      </c>
-      <c r="D34">
-        <v>944776</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2">
+        <v>26192</v>
+      </c>
+      <c r="D34" s="2">
+        <v>294638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
       <c r="B35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35">
-        <v>26192</v>
-      </c>
-      <c r="D35">
-        <v>294638</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8724</v>
+      </c>
+      <c r="D35" s="2">
+        <v>156144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
       <c r="B36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36">
-        <v>8724</v>
-      </c>
-      <c r="D36">
-        <v>156144</v>
+        <v>14</v>
+      </c>
+      <c r="C36" s="2">
+        <v>6944</v>
+      </c>
+      <c r="D36" s="2">
+        <v>40268</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
       <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37">
-        <v>6944</v>
-      </c>
-      <c r="D37">
-        <v>40268</v>
+        <v>27</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6405</v>
+      </c>
+      <c r="D37" s="2">
+        <v>49540</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
       <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38">
-        <v>6405</v>
-      </c>
-      <c r="D38">
-        <v>49540</v>
+        <v>21</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5922</v>
+      </c>
+      <c r="D38" s="2">
+        <v>58025</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
       <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39">
-        <v>5922</v>
-      </c>
-      <c r="D39">
-        <v>58025</v>
+        <v>28</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5646</v>
+      </c>
+      <c r="D39" s="2">
+        <v>66079</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
       <c r="B40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40">
-        <v>5646</v>
-      </c>
-      <c r="D40">
-        <v>66079</v>
+        <v>15</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4873</v>
+      </c>
+      <c r="D40" s="2">
+        <v>69402</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
       <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2">
+        <v>11734</v>
+      </c>
+      <c r="D41" s="2">
+        <v>155241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1414096</v>
+      </c>
+      <c r="D42" s="2">
+        <v>7646530</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4">
+        <f>SUM(C31:C41)-C42</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <f>SUM(D31:D41)-D42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C41">
-        <v>4873</v>
-      </c>
-      <c r="D41">
-        <v>69402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42">
-        <v>11734</v>
-      </c>
-      <c r="D42">
-        <v>155241</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43">
-        <v>1414096</v>
-      </c>
-      <c r="D43">
-        <v>7646530</v>
+      <c r="C44" s="2">
+        <v>280874</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3999949</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>5</v>
       </c>
-      <c r="C45">
-        <v>280874</v>
-      </c>
-      <c r="D45">
-        <v>3999919</v>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="2">
+        <v>93172</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1048101</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46">
-        <v>93172</v>
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="2">
+        <v>72160</v>
       </c>
       <c r="D46" s="2">
-        <v>1048101</v>
+        <v>558096</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C47">
-        <v>72160</v>
-      </c>
-      <c r="D47">
-        <v>558096</v>
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="2">
+        <v>60153</v>
+      </c>
+      <c r="D47" s="2">
+        <v>589403</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
       <c r="B48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48">
-        <v>60153</v>
-      </c>
-      <c r="D48">
-        <v>589403</v>
+        <v>13</v>
+      </c>
+      <c r="C48" s="2">
+        <v>57501</v>
+      </c>
+      <c r="D48" s="2">
+        <v>394171</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
       <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45930</v>
+      </c>
+      <c r="D49" s="2">
+        <v>872475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="2">
+        <v>42393</v>
+      </c>
+      <c r="D50" s="2">
+        <v>498727</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="2">
+        <v>16683</v>
+      </c>
+      <c r="D51" s="2">
+        <v>968599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="2">
+        <v>11910</v>
+      </c>
+      <c r="D52" s="2">
+        <v>139392</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2">
+        <v>11802</v>
+      </c>
+      <c r="D53" s="2">
+        <v>23692</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="2">
+        <v>9803</v>
+      </c>
+      <c r="D54" s="2">
+        <v>104759</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="2">
+        <v>6549</v>
+      </c>
+      <c r="D55" s="2">
+        <v>97697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="2">
+        <v>6215</v>
+      </c>
+      <c r="D56" s="2">
+        <v>62597</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3200</v>
+      </c>
+      <c r="D57" s="2">
+        <v>30117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="2">
+        <v>718345</v>
+      </c>
+      <c r="D58" s="2">
+        <v>9387775</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="4">
+        <f>SUM(C44:C57)-C58</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <f>SUM(D44:D57)-D58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2">
+        <v>144286</v>
+      </c>
+      <c r="D60" s="2">
+        <v>284532</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="2">
+        <v>452</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="2">
+        <v>144738</v>
+      </c>
+      <c r="D62" s="2">
+        <v>287630</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B63" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="4">
+        <f>SUM(C60:C61)-C62</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="4">
+        <f>SUM(D60:D61)-D62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
         <v>13</v>
       </c>
-      <c r="C49">
-        <v>57501</v>
-      </c>
-      <c r="D49">
-        <v>394171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50">
-        <v>45930</v>
-      </c>
-      <c r="D50">
-        <v>872475</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51">
-        <v>42393</v>
-      </c>
-      <c r="D51">
-        <v>498727</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C52">
-        <v>16683</v>
-      </c>
-      <c r="D52">
-        <v>968599</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53">
-        <v>11910</v>
-      </c>
-      <c r="D53">
-        <v>139392</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
+      <c r="C64" s="2">
+        <v>91338</v>
+      </c>
+      <c r="D64" s="2">
+        <v>626131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
         <v>12</v>
       </c>
-      <c r="C54">
-        <v>11802</v>
-      </c>
-      <c r="D54">
-        <v>23692</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55">
-        <v>9803</v>
-      </c>
-      <c r="D55">
-        <v>104759</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56">
-        <v>6549</v>
-      </c>
-      <c r="D56">
-        <v>97697</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57">
-        <v>6215</v>
-      </c>
-      <c r="D57">
-        <v>62597</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58">
-        <v>3200</v>
-      </c>
-      <c r="D58">
-        <v>30117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+      <c r="C65" s="2">
+        <v>52869</v>
+      </c>
+      <c r="D65" s="2">
+        <v>130399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
         <v>19</v>
       </c>
-      <c r="C59">
-        <v>718345</v>
-      </c>
-      <c r="D59">
-        <v>9387775</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C61" t="s">
+      <c r="C66" s="2">
+        <v>144207</v>
+      </c>
+      <c r="D66" s="2">
+        <v>756530</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B67" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="4">
+        <f>SUM(C64:C65)-C66</f>
         <v>0</v>
       </c>
-      <c r="D61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63">
-        <v>144286</v>
-      </c>
-      <c r="D63">
-        <v>284532</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64">
-        <v>452</v>
-      </c>
-      <c r="D64">
-        <v>3098</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65">
-        <v>144738</v>
-      </c>
-      <c r="D65">
-        <v>28763</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67">
-        <v>91338</v>
-      </c>
-      <c r="D67">
-        <v>626131</v>
+      <c r="D67" s="4">
+        <f>SUM(D64:D65)-D66</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
       <c r="B68" t="s">
         <v>12</v>
       </c>
-      <c r="C68">
-        <v>52869</v>
-      </c>
-      <c r="D68">
-        <v>130399</v>
+      <c r="C68" s="2">
+        <v>105750</v>
+      </c>
+      <c r="D68" s="2">
+        <v>208245</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
       <c r="B69" t="s">
         <v>19</v>
       </c>
-      <c r="C69">
-        <v>144207</v>
-      </c>
-      <c r="D69">
-        <v>756530</v>
+      <c r="C69" s="2">
+        <v>105750</v>
+      </c>
+      <c r="D69" s="2">
+        <v>208245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B70" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71">
-        <v>105750</v>
-      </c>
-      <c r="D71">
-        <v>208245</v>
+        <v>33</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1065</v>
+      </c>
+      <c r="D71" s="2">
+        <v>9815</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
       <c r="B72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72">
-        <v>105750</v>
-      </c>
-      <c r="D72">
-        <v>208245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1065</v>
+      </c>
+      <c r="D72" s="2">
+        <v>9815</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>9</v>
       </c>
-      <c r="B74" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74">
-        <v>1065</v>
-      </c>
-      <c r="D74">
-        <v>9815</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75">
-        <v>1065</v>
-      </c>
-      <c r="D75">
-        <v>9815</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
+      <c r="B73" t="s">
         <v>35</v>
       </c>
-      <c r="C76">
+      <c r="C73" s="2">
         <v>7001756</v>
       </c>
-      <c r="D76">
+      <c r="D73" s="2">
         <v>39768130</v>
       </c>
     </row>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table16.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D736A270-96DA-2B4E-8AD1-2B5AD0D39EA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22336102-B9FA-994E-821B-59F196B9F4C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19980" yWindow="460" windowWidth="19960" windowHeight="25920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="19980" yWindow="460" windowWidth="19960" windowHeight="25920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,12 +510,12 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -1515,10 +1515,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="2">
         <v>7001756</v>
